--- a/June_Event/Porewaters/pw_raw_npoc_tn_data/20220701_Readme_NPOC_TN_COMPASS_TEMPEST_JUNE22_n54_SYNOPTIC_n4.xlsx
+++ b/June_Event/Porewaters/pw_raw_npoc_tn_data/20220701_Readme_NPOC_TN_COMPASS_TEMPEST_JUNE22_n54_SYNOPTIC_n4.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25524"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/myer056/OneDrive - PNNL/Documents/GitHub/TEMPEST/June_Event/Porewaters/pw_raw_npoc_tn_data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pnnl.sharepoint.com/teams/MCRL-COMPASS/Shared Documents/COMPASS Data Files MCRL/Raw_Instrument_Data/TEMPEST/TOC_LC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAC784B9-6C84-734C-8597-F27735B38205}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="27" documentId="8_{ACA339A0-BD32-3647-82EA-24F9D5BEAEEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7F3819C8-8BE2-4D24-8E83-4FF404764A20}"/>
   <bookViews>
-    <workbookView xWindow="1180" yWindow="1460" windowWidth="27240" windowHeight="15220" xr2:uid="{91D8F236-67CD-D747-9C1A-C4657F933BC8}"/>
+    <workbookView xWindow="1180" yWindow="1460" windowWidth="27240" windowHeight="15220" activeTab="1" xr2:uid="{91D8F236-67CD-D747-9C1A-C4657F933BC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Dilution sheet" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="116">
   <si>
     <t>Sample Name</t>
   </si>
@@ -49,6 +50,12 @@
     <t>Notes</t>
   </si>
   <si>
+    <t>Sample wt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total vol: </t>
+  </si>
+  <si>
     <t>CondBlank1</t>
   </si>
   <si>
@@ -355,17 +362,35 @@
     <t>NPOC: 1.738 mg/L, TN: 0.9156 mg/L</t>
   </si>
   <si>
-    <t>Sample wt</t>
-  </si>
-  <si>
-    <t>Total vol:</t>
+    <t>Sample</t>
+  </si>
+  <si>
+    <t>Vial wt (g)</t>
+  </si>
+  <si>
+    <t>Vial wt+Sample (g)</t>
+  </si>
+  <si>
+    <t>Sample Wt (g)</t>
+  </si>
+  <si>
+    <t>DI added (mL)</t>
+  </si>
+  <si>
+    <t>Total vol (mL)</t>
+  </si>
+  <si>
+    <t>Vial wt after addition (g)</t>
+  </si>
+  <si>
+    <t>*two different glass thickness-&gt; explains differing vial wts</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -373,13 +398,32 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFE699"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -394,8 +438,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -712,18 +760,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9DC7998-3185-5A48-884C-52F25BFE7C3D}">
   <dimension ref="A1:F79"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView zoomScale="110" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.95"/>
   <cols>
-    <col min="1" max="1" width="22.33203125" customWidth="1"/>
-    <col min="2" max="2" width="24.6640625" customWidth="1"/>
-    <col min="3" max="3" width="14.33203125" customWidth="1"/>
+    <col min="1" max="1" width="22.375" customWidth="1"/>
+    <col min="2" max="2" width="24.625" customWidth="1"/>
+    <col min="3" max="3" width="14.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="15.75">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -736,794 +784,837 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>106</v>
-      </c>
-      <c r="F1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B4">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B7">
         <v>21</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B8">
         <v>22</v>
       </c>
       <c r="D8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B9">
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B10">
         <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B11">
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B12">
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B13">
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B14">
         <v>28</v>
       </c>
       <c r="C14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B15">
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B16">
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B17">
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B18">
         <v>32</v>
       </c>
       <c r="C18" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D18" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B19">
         <v>33</v>
       </c>
       <c r="D19" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B20">
         <v>34</v>
       </c>
       <c r="D20" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B21">
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B22">
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B23">
         <v>37</v>
       </c>
       <c r="C23" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D23" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B24">
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B25">
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B26">
         <v>40</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B27">
         <v>41</v>
       </c>
       <c r="C27" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D27" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B28">
         <v>42</v>
       </c>
       <c r="C28" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D28" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B29">
         <v>43</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B30">
         <v>44</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B31">
         <v>45</v>
       </c>
       <c r="D31" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B32">
         <v>46</v>
       </c>
       <c r="D32" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B33">
         <v>47</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B34">
         <v>48</v>
       </c>
       <c r="C34" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D34" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B35">
         <v>49</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B36">
         <v>50</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B37">
         <v>51</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B38">
         <v>52</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B39">
         <v>53</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B40">
         <v>54</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B41">
         <v>55</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B42">
         <v>56</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B43">
         <v>57</v>
       </c>
       <c r="D43" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B44">
         <v>58</v>
       </c>
       <c r="D44" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B45">
         <v>59</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B46">
         <v>60</v>
       </c>
       <c r="C46" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D46" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B47">
         <v>61</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4">
       <c r="A48" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B48">
         <v>62</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B49">
         <v>63</v>
       </c>
       <c r="C49" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D49" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B50">
         <v>64</v>
       </c>
       <c r="C50" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D50" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B51">
         <v>65</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B52">
         <v>66</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4">
       <c r="A53" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B53">
         <v>67</v>
       </c>
       <c r="C53" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D53" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B54">
         <v>68</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4">
       <c r="A55" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B55">
         <v>69</v>
       </c>
       <c r="C55" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D55" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B56">
         <v>70</v>
       </c>
       <c r="D56" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B57">
         <v>71</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:4">
       <c r="A58" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B58">
         <v>72</v>
       </c>
       <c r="C58" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D58" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B59">
         <v>73</v>
       </c>
       <c r="C59" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D59" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B60">
         <v>74</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:4">
       <c r="A61" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B61">
         <v>75</v>
       </c>
       <c r="C61" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D61" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B62">
         <v>76</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:4">
       <c r="A63" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B63">
         <v>77</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:4">
       <c r="A64" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B64">
         <v>78</v>
       </c>
       <c r="C64" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D64" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B65">
         <v>79</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:4">
       <c r="A66" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B66">
         <v>80</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:4">
       <c r="A67" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B67">
         <v>81</v>
       </c>
       <c r="C67" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D67" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B68">
         <v>82</v>
       </c>
       <c r="D68" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B69">
         <v>83</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:4">
       <c r="A70" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B70">
         <v>84</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:4">
       <c r="A71" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B71">
         <v>85</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:4">
       <c r="A72" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B72">
         <v>86</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:4">
       <c r="A73" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B73">
         <v>87</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:4">
       <c r="A74" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B74">
         <v>88</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:4">
       <c r="A75" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B75">
         <v>89</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:4">
       <c r="A76" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B76">
         <v>90</v>
       </c>
       <c r="C76" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D76" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B77">
         <v>91</v>
       </c>
       <c r="C77" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D77" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B78">
         <v>92</v>
       </c>
       <c r="D78" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B79">
         <v>93</v>
       </c>
       <c r="D79" t="s">
-        <v>105</v>
+        <v>107</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56C7E336-00F4-4729-A7BD-3D6E152853BD}">
+  <dimension ref="A1:J1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:J1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="H1" s="4"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1" t="s">
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -1717,36 +1808,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{07208D2E-7F8E-4B79-AA4B-413438936BCE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{07208D2E-7F8E-4B79-AA4B-413438936BCE}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B7DB5180-FC10-48F4-91FD-75391C3FC033}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="da8c28ad-5ac5-4047-b08a-f75bc24d91a9"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B7DB5180-FC10-48F4-91FD-75391C3FC033}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{59DB5534-4476-495D-A559-23014CE94F92}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{59DB5534-4476-495D-A559-23014CE94F92}"/>
 </file>
--- a/June_Event/Porewaters/pw_raw_npoc_tn_data/20220701_Readme_NPOC_TN_COMPASS_TEMPEST_JUNE22_n54_SYNOPTIC_n4.xlsx
+++ b/June_Event/Porewaters/pw_raw_npoc_tn_data/20220701_Readme_NPOC_TN_COMPASS_TEMPEST_JUNE22_n54_SYNOPTIC_n4.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25524"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pnnl.sharepoint.com/teams/MCRL-COMPASS/Shared Documents/COMPASS Data Files MCRL/Raw_Instrument_Data/TEMPEST/TOC_LC/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pnnl-my.sharepoint.com/personal/opal_otenburg_pnnl_gov/Documents/Documents/GitHub/TEMPEST/June_Event/Porewaters/pw_raw_npoc_tn_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="27" documentId="8_{ACA339A0-BD32-3647-82EA-24F9D5BEAEEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7F3819C8-8BE2-4D24-8E83-4FF404764A20}"/>
+  <xr:revisionPtr revIDLastSave="38" documentId="8_{ACA339A0-BD32-3647-82EA-24F9D5BEAEEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3FC5A69E-B305-9146-B096-2A5D9A636A90}"/>
   <bookViews>
-    <workbookView xWindow="1180" yWindow="1460" windowWidth="27240" windowHeight="15220" activeTab="1" xr2:uid="{91D8F236-67CD-D747-9C1A-C4657F933BC8}"/>
+    <workbookView xWindow="1180" yWindow="1460" windowWidth="27240" windowHeight="15220" xr2:uid="{91D8F236-67CD-D747-9C1A-C4657F933BC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="119">
   <si>
     <t>Sample Name</t>
   </si>
@@ -384,13 +384,22 @@
   </si>
   <si>
     <t>*two different glass thickness-&gt; explains differing vial wts</t>
+  </si>
+  <si>
+    <t>only 1 peak, re-ran 20220708 to get more peaks</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Omit </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -760,18 +769,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9DC7998-3185-5A48-884C-52F25BFE7C3D}">
   <dimension ref="A1:F79"/>
   <sheetViews>
-    <sheetView zoomScale="110" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:F1"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="110" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.95"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.375" customWidth="1"/>
-    <col min="2" max="2" width="24.625" customWidth="1"/>
-    <col min="3" max="3" width="14.375" customWidth="1"/>
+    <col min="1" max="1" width="22.33203125" customWidth="1"/>
+    <col min="2" max="2" width="24.6640625" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -791,7 +800,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -802,7 +811,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -810,7 +819,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -818,7 +827,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -829,7 +838,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -840,7 +849,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -851,7 +860,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -862,7 +871,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -870,7 +879,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -884,23 +893,32 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>24</v>
       </c>
       <c r="B11">
         <v>25</v>
       </c>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="C11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>25</v>
       </c>
       <c r="B12">
         <v>26</v>
       </c>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="C12" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>26</v>
       </c>
@@ -908,7 +926,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>27</v>
       </c>
@@ -922,15 +940,21 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>28</v>
       </c>
       <c r="B15">
         <v>29</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="C15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>29</v>
       </c>
@@ -938,7 +962,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>30</v>
       </c>
@@ -946,7 +970,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>31</v>
       </c>
@@ -960,7 +984,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>32</v>
       </c>
@@ -971,7 +995,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>34</v>
       </c>
@@ -982,7 +1006,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>36</v>
       </c>
@@ -990,7 +1014,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>37</v>
       </c>
@@ -998,7 +1022,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>38</v>
       </c>
@@ -1012,7 +1036,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>39</v>
       </c>
@@ -1020,7 +1044,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>40</v>
       </c>
@@ -1028,7 +1052,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>41</v>
       </c>
@@ -1036,7 +1060,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>42</v>
       </c>
@@ -1050,7 +1074,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>44</v>
       </c>
@@ -1064,7 +1088,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>45</v>
       </c>
@@ -1072,7 +1096,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>46</v>
       </c>
@@ -1080,7 +1104,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>47</v>
       </c>
@@ -1091,7 +1115,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>49</v>
       </c>
@@ -1102,7 +1126,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>51</v>
       </c>
@@ -1110,7 +1134,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>52</v>
       </c>
@@ -1124,7 +1148,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>53</v>
       </c>
@@ -1132,7 +1156,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>54</v>
       </c>
@@ -1140,15 +1164,21 @@
         <v>50</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>55</v>
       </c>
       <c r="B37">
         <v>51</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="C37" t="s">
+        <v>22</v>
+      </c>
+      <c r="D37" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>56</v>
       </c>
@@ -1156,7 +1186,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>57</v>
       </c>
@@ -1164,7 +1194,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>58</v>
       </c>
@@ -1172,7 +1202,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>59</v>
       </c>
@@ -1180,15 +1210,21 @@
         <v>55</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>60</v>
       </c>
       <c r="B42">
         <v>56</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="C42" t="s">
+        <v>118</v>
+      </c>
+      <c r="D42" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>61</v>
       </c>
@@ -1199,7 +1235,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>63</v>
       </c>
@@ -1210,7 +1246,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>65</v>
       </c>
@@ -1218,7 +1254,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>66</v>
       </c>
@@ -1232,7 +1268,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>67</v>
       </c>
@@ -1240,7 +1276,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>68</v>
       </c>
@@ -1248,7 +1284,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>69</v>
       </c>
@@ -1262,7 +1298,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>70</v>
       </c>
@@ -1276,7 +1312,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>71</v>
       </c>
@@ -1284,7 +1320,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>72</v>
       </c>
@@ -1292,7 +1328,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>73</v>
       </c>
@@ -1306,7 +1342,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>74</v>
       </c>
@@ -1314,7 +1350,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>75</v>
       </c>
@@ -1328,7 +1364,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>78</v>
       </c>
@@ -1339,7 +1375,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>80</v>
       </c>
@@ -1347,7 +1383,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>81</v>
       </c>
@@ -1361,7 +1397,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>82</v>
       </c>
@@ -1375,7 +1411,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>83</v>
       </c>
@@ -1383,7 +1419,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>84</v>
       </c>
@@ -1397,7 +1433,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>85</v>
       </c>
@@ -1405,7 +1441,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>86</v>
       </c>
@@ -1413,7 +1449,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>87</v>
       </c>
@@ -1427,7 +1463,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>88</v>
       </c>
@@ -1435,7 +1471,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>89</v>
       </c>
@@ -1443,7 +1479,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="67" spans="1:4">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>90</v>
       </c>
@@ -1457,7 +1493,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="68" spans="1:4">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>92</v>
       </c>
@@ -1468,7 +1504,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="69" spans="1:4">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>94</v>
       </c>
@@ -1476,7 +1512,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>95</v>
       </c>
@@ -1484,7 +1520,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="71" spans="1:4">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>96</v>
       </c>
@@ -1492,7 +1528,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="72" spans="1:4">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>97</v>
       </c>
@@ -1500,7 +1536,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="73" spans="1:4">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>98</v>
       </c>
@@ -1508,7 +1544,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="74" spans="1:4">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>99</v>
       </c>
@@ -1516,7 +1552,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="75" spans="1:4">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>100</v>
       </c>
@@ -1524,7 +1560,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="76" spans="1:4">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>101</v>
       </c>
@@ -1538,7 +1574,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="77" spans="1:4">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>103</v>
       </c>
@@ -1552,7 +1588,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="78" spans="1:4">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>104</v>
       </c>
@@ -1563,7 +1599,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="79" spans="1:4">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>106</v>
       </c>
@@ -1583,13 +1619,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56C7E336-00F4-4729-A7BD-3D6E152853BD}">
   <dimension ref="A1:J1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>108</v>
       </c>
@@ -1623,12 +1659,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1802,19 +1835,52 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{07208D2E-7F8E-4B79-AA4B-413438936BCE}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{59DB5534-4476-495D-A559-23014CE94F92}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="da8c28ad-5ac5-4047-b08a-f75bc24d91a9"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B7DB5180-FC10-48F4-91FD-75391C3FC033}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B7DB5180-FC10-48F4-91FD-75391C3FC033}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="da8c28ad-5ac5-4047-b08a-f75bc24d91a9"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{59DB5534-4476-495D-A559-23014CE94F92}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{07208D2E-7F8E-4B79-AA4B-413438936BCE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>